--- a/Code/file/input/scenario_3.xlsx
+++ b/Code/file/input/scenario_3.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t xml:space="preserve">computerPower</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
   </si>
   <si>
     <t xml:space="preserve">maxProcessTime</t>
@@ -163,13 +172,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.48"/>
   </cols>
@@ -200,6 +209,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -222,86 +255,86 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -320,32 +353,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,22 +386,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>202</v>
+        <v>700</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>205</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,22 +409,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>202</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>205</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,22 +432,91 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>202</v>
+        <v>500</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>203</v>
+        <v>700</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>205</v>
+        <v>500</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>206</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -436,17 +538,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>120000</v>
